--- a/package/cb_definition_data/cb_config_params_updated.xlsx
+++ b/package/cb_definition_data/cb_config_params_updated.xlsx
@@ -15536,7 +15536,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.65</v>
+        <v>-6.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.81</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-10.21</v>
+        <v>-102.1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.65</v>
+        <v>-6.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.41</v>
+        <v>-34.1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.620000000000001</v>
+        <v>-66.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>74000</v>
+        <v>740000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-847171.3</v>
+        <v>-8471713</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-116103.5</v>
+        <v>-1161035</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-116103.5</v>
+        <v>-1161035</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-41000</v>
+        <v>-410000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1400</v>
+        <v>-14000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5300</v>
+        <v>-53000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1000</v>
+        <v>-10000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-8.6</v>
+        <v>-86</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-6.100000000000001</v>
+        <v>-61</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-7</v>
+        <v>-70</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-5.7</v>
+        <v>-57</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.7000000000000001</v>
+        <v>-7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-7.2</v>
+        <v>-72</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.304</v>
+        <v>-3.04</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.304</v>
+        <v>-3.04</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.064</v>
+        <v>-0.64</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.144</v>
+        <v>-1.44</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.144</v>
+        <v>-1.44</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.006</v>
+        <v>-0.06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>28.5</v>
+        <v>285</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.5</v>
+        <v>685</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>87.5</v>
+        <v>875</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>107</v>
+        <v>1070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>87</v>
+        <v>870</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-50</v>
+        <v>-500</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32.35294118</v>
+        <v>323.5294118</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-4.5</v>
+        <v>-45</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.006</v>
+        <v>-0.06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.0017</v>
+        <v>-0.017</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.7400000000000001</v>
+        <v>-7.4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-1.4</v>
+        <v>-14</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.52</v>
+        <v>-5.2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.017</v>
+        <v>-0.17</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-11.5</v>
+        <v>-115</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-8.5</v>
+        <v>-85</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-37</v>
+        <v>-370</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-100000</v>
+        <v>-1000000</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-17</v>
+        <v>-170</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-50</v>
+        <v>-500</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-50</v>
+        <v>-500</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>32.35294118</v>
+        <v>323.5294118</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>32.35294118</v>
+        <v>323.5294118</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-276831.5</v>
+        <v>-2768315</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-9865.650000000001</v>
+        <v>-98656.5</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-143348.6</v>
+        <v>-1433486</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-465664.2</v>
+        <v>-4656642</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-571201.8</v>
+        <v>-5712018</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-571201.8</v>
+        <v>-5712018</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-142800.5</v>
+        <v>-1428005</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-8.6</v>
+        <v>-86</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-8.6</v>
+        <v>-86</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-8.6</v>
+        <v>-86</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-8.6</v>
+        <v>-86</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-6.02</v>
+        <v>-60.2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-6.02</v>
+        <v>-60.2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-20000</v>
+        <v>-200000</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-6000</v>
+        <v>-60000</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-847171.3</v>
+        <v>-8471713</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-116103.5</v>
+        <v>-1161035</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-305586.2</v>
+        <v>-3055862</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-246836.5</v>
+        <v>-2468365</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-246836.5</v>
+        <v>-2468365</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-12233.4</v>
+        <v>-122334</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-462235.8</v>
+        <v>-4622358</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-981768.4</v>
+        <v>-9817684</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-981768.4</v>
+        <v>-9817684</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-245442.1</v>
+        <v>-2454421</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5100</v>
+        <v>51000</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>32.35294118</v>
+        <v>323.5294118</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-50000</v>
+        <v>-500000</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46333.3</v>
+        <v>463333</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-8340</v>
+        <v>-83400</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>139000</v>
+        <v>1390000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-8340</v>
+        <v>-83400</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>64900</v>
+        <v>649000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-8340</v>
+        <v>-83400</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.0039</v>
+        <v>-0.039</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.0012</v>
+        <v>0.012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-42240000</v>
+        <v>-422400000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>237771</v>
+        <v>2377710</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-35.1</v>
+        <v>-351</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-0.004200000000000001</v>
+        <v>-0.042</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-317761.4</v>
+        <v>-3177614</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>88000</v>
+        <v>880000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>88000</v>
+        <v>880000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>88000</v>
+        <v>880000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>556000</v>
+        <v>5560000</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>46333.33333</v>
+        <v>463333.3333</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-8340</v>
+        <v>-83400</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>556000</v>
+        <v>5560000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>-4.7</v>
+        <v>-47</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6300000</v>
+        <v>63000000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1300000</v>
+        <v>13000000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6300000</v>
+        <v>63000000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6300000</v>
+        <v>63000000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6300000</v>
+        <v>63000000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>-70</v>
+        <v>-700</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>-4</v>
+        <v>-40</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-3.1</v>
+        <v>-31</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>-50</v>
+        <v>-500</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>38.5</v>
+        <v>385</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>-4.5</v>
+        <v>-45</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>-4.5</v>
+        <v>-45</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>-4.5</v>
+        <v>-45</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4.100000000000001</v>
+        <v>41</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
